--- a/pred_ohlcv/54/2019-11-13 WET ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-13 WET ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="C2" t="n">
         <v>5.19</v>
       </c>
-      <c r="C2" t="n">
-        <v>5.21</v>
-      </c>
       <c r="D2" t="n">
-        <v>5.21</v>
+        <v>5.19</v>
       </c>
       <c r="E2" t="n">
-        <v>5.19</v>
+        <v>5.14</v>
       </c>
       <c r="F2" t="n">
-        <v>82330.1826</v>
+        <v>114420.1826</v>
       </c>
       <c r="G2" t="n">
-        <v>5.1555</v>
+        <v>5.154666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.22</v>
+        <v>5.19</v>
       </c>
       <c r="C3" t="n">
-        <v>5.24</v>
+        <v>5.21</v>
       </c>
       <c r="D3" t="n">
-        <v>5.24</v>
+        <v>5.21</v>
       </c>
       <c r="E3" t="n">
-        <v>5.21</v>
+        <v>5.19</v>
       </c>
       <c r="F3" t="n">
-        <v>461223.2298582061</v>
+        <v>82330.1826</v>
       </c>
       <c r="G3" t="n">
-        <v>5.156000000000001</v>
+        <v>5.1555</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C4" t="n">
         <v>5.24</v>
       </c>
-      <c r="C4" t="n">
-        <v>5.25</v>
-      </c>
       <c r="D4" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="E4" t="n">
-        <v>5.24</v>
+        <v>5.21</v>
       </c>
       <c r="F4" t="n">
-        <v>3808540.323637032</v>
+        <v>461223.2298582061</v>
       </c>
       <c r="G4" t="n">
-        <v>5.157333333333333</v>
+        <v>5.156000000000001</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="C5" t="n">
         <v>5.25</v>
@@ -495,15 +509,18 @@
         <v>5.25</v>
       </c>
       <c r="E5" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="F5" t="n">
-        <v>80614.43054285714</v>
+        <v>3808540.323637032</v>
       </c>
       <c r="G5" t="n">
-        <v>5.157833333333333</v>
+        <v>5.157333333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="C6" t="n">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="D6" t="n">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="E6" t="n">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="F6" t="n">
-        <v>14533.4775</v>
+        <v>80614.43054285714</v>
       </c>
       <c r="G6" t="n">
-        <v>5.157</v>
+        <v>5.157833333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>5.23</v>
       </c>
       <c r="F7" t="n">
-        <v>82484.10279999999</v>
+        <v>14533.4775</v>
       </c>
       <c r="G7" t="n">
-        <v>5.155500000000001</v>
+        <v>5.157</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,21 +590,24 @@
         <v>5.23</v>
       </c>
       <c r="C8" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="D8" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="E8" t="n">
         <v>5.23</v>
       </c>
       <c r="F8" t="n">
-        <v>1397497.919261905</v>
+        <v>82484.10279999999</v>
       </c>
       <c r="G8" t="n">
-        <v>5.154000000000001</v>
+        <v>5.155500000000001</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="C9" t="n">
         <v>5.25</v>
       </c>
-      <c r="C9" t="n">
-        <v>5.28</v>
-      </c>
       <c r="D9" t="n">
-        <v>5.28</v>
+        <v>5.25</v>
       </c>
       <c r="E9" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="F9" t="n">
-        <v>43228.7388</v>
+        <v>1397497.919261905</v>
       </c>
       <c r="G9" t="n">
-        <v>5.155</v>
+        <v>5.154000000000001</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.27</v>
+        <v>5.25</v>
       </c>
       <c r="C10" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="D10" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="E10" t="n">
-        <v>5.27</v>
+        <v>5.25</v>
       </c>
       <c r="F10" t="n">
-        <v>361207.3103</v>
+        <v>43228.7388</v>
       </c>
       <c r="G10" t="n">
-        <v>5.156000000000001</v>
+        <v>5.155</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.33</v>
+        <v>5.27</v>
       </c>
       <c r="C11" t="n">
-        <v>5.33</v>
+        <v>5.3</v>
       </c>
       <c r="D11" t="n">
-        <v>5.33</v>
+        <v>5.3</v>
       </c>
       <c r="E11" t="n">
-        <v>5.33</v>
+        <v>5.27</v>
       </c>
       <c r="F11" t="n">
-        <v>87195.41959999999</v>
+        <v>361207.3103</v>
       </c>
       <c r="G11" t="n">
-        <v>5.156333333333333</v>
+        <v>5.156000000000001</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>5.33</v>
       </c>
       <c r="C12" t="n">
-        <v>5.35</v>
+        <v>5.33</v>
       </c>
       <c r="D12" t="n">
-        <v>5.35</v>
+        <v>5.33</v>
       </c>
       <c r="E12" t="n">
         <v>5.33</v>
       </c>
       <c r="F12" t="n">
-        <v>32069.5338</v>
+        <v>87195.41959999999</v>
       </c>
       <c r="G12" t="n">
-        <v>5.156666666666667</v>
+        <v>5.156333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,25 +732,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="C13" t="n">
         <v>5.35</v>
       </c>
-      <c r="C13" t="n">
-        <v>5.33</v>
-      </c>
       <c r="D13" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="E13" t="n">
         <v>5.33</v>
       </c>
       <c r="F13" t="n">
-        <v>628180.1126</v>
+        <v>32069.5338</v>
       </c>
       <c r="G13" t="n">
-        <v>5.156000000000001</v>
+        <v>5.156666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -720,25 +761,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="C14" t="n">
         <v>5.33</v>
       </c>
       <c r="D14" t="n">
-        <v>5.34</v>
+        <v>5.4</v>
       </c>
       <c r="E14" t="n">
         <v>5.33</v>
       </c>
       <c r="F14" t="n">
-        <v>266158.2332</v>
+        <v>628180.1126</v>
       </c>
       <c r="G14" t="n">
-        <v>5.154833333333333</v>
+        <v>5.156000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -746,25 +790,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="C15" t="n">
-        <v>5.4</v>
+        <v>5.33</v>
       </c>
       <c r="D15" t="n">
-        <v>5.4</v>
+        <v>5.34</v>
       </c>
       <c r="E15" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="F15" t="n">
-        <v>87358.5215</v>
+        <v>266158.2332</v>
       </c>
       <c r="G15" t="n">
-        <v>5.159833333333333</v>
+        <v>5.154833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.31</v>
+        <v>5.37</v>
       </c>
       <c r="C16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="D16" t="n">
-        <v>5.31</v>
+        <v>5.4</v>
       </c>
       <c r="E16" t="n">
-        <v>5.3</v>
+        <v>5.37</v>
       </c>
       <c r="F16" t="n">
-        <v>285183.109</v>
+        <v>87358.5215</v>
       </c>
       <c r="G16" t="n">
-        <v>5.159999999999999</v>
+        <v>5.159833333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,25 +848,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.39</v>
+        <v>5.31</v>
       </c>
       <c r="C17" t="n">
-        <v>5.39</v>
+        <v>5.3</v>
       </c>
       <c r="D17" t="n">
-        <v>5.39</v>
+        <v>5.31</v>
       </c>
       <c r="E17" t="n">
-        <v>5.39</v>
+        <v>5.3</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>285183.109</v>
       </c>
       <c r="G17" t="n">
-        <v>5.161166666666666</v>
+        <v>5.159999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -836,12 +889,15 @@
         <v>5.39</v>
       </c>
       <c r="F18" t="n">
-        <v>39189.4017</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>5.165666666666666</v>
+        <v>5.161166666666666</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,25 +906,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="C19" t="n">
         <v>5.39</v>
       </c>
       <c r="D19" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="E19" t="n">
         <v>5.39</v>
       </c>
       <c r="F19" t="n">
-        <v>1167934.602</v>
+        <v>39189.4017</v>
       </c>
       <c r="G19" t="n">
-        <v>5.170333333333332</v>
+        <v>5.165666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -888,13 +947,16 @@
         <v>5.39</v>
       </c>
       <c r="F20" t="n">
-        <v>818430.0311</v>
+        <v>1167934.602</v>
       </c>
       <c r="G20" t="n">
-        <v>5.174999999999998</v>
+        <v>5.170333333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="C21" t="n">
-        <v>5.41</v>
+        <v>5.39</v>
       </c>
       <c r="D21" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E21" t="n">
-        <v>5.41</v>
+        <v>5.39</v>
       </c>
       <c r="F21" t="n">
-        <v>56760.72088724584</v>
+        <v>818430.0311</v>
       </c>
       <c r="G21" t="n">
-        <v>5.178166666666665</v>
+        <v>5.174999999999998</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>5.41</v>
       </c>
       <c r="C22" t="n">
-        <v>5.45</v>
+        <v>5.41</v>
       </c>
       <c r="D22" t="n">
-        <v>5.45</v>
+        <v>5.41</v>
       </c>
       <c r="E22" t="n">
         <v>5.41</v>
       </c>
       <c r="F22" t="n">
-        <v>102533.2928191762</v>
+        <v>56760.72088724584</v>
       </c>
       <c r="G22" t="n">
-        <v>5.183333333333332</v>
+        <v>5.178166666666665</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.45</v>
+        <v>5.41</v>
       </c>
       <c r="C23" t="n">
         <v>5.45</v>
@@ -963,15 +1031,18 @@
         <v>5.45</v>
       </c>
       <c r="E23" t="n">
-        <v>5.45</v>
+        <v>5.41</v>
       </c>
       <c r="F23" t="n">
-        <v>22313.3487</v>
+        <v>102533.2928191762</v>
       </c>
       <c r="G23" t="n">
-        <v>5.187666666666664</v>
+        <v>5.183333333333332</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>5.45</v>
       </c>
       <c r="C24" t="n">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="D24" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="E24" t="n">
-        <v>5.3</v>
+        <v>5.45</v>
       </c>
       <c r="F24" t="n">
-        <v>2414411.1258</v>
+        <v>22313.3487</v>
       </c>
       <c r="G24" t="n">
-        <v>5.192999999999999</v>
+        <v>5.187666666666664</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.46</v>
+        <v>5.45</v>
       </c>
       <c r="C25" t="n">
         <v>5.47</v>
       </c>
       <c r="D25" t="n">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="E25" t="n">
-        <v>5.46</v>
+        <v>5.3</v>
       </c>
       <c r="F25" t="n">
-        <v>62731.53216745886</v>
+        <v>2414411.1258</v>
       </c>
       <c r="G25" t="n">
-        <v>5.200833333333333</v>
+        <v>5.192999999999999</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,10 +1109,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="C26" t="n">
         <v>5.47</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.46</v>
       </c>
       <c r="D26" t="n">
         <v>5.47</v>
@@ -1044,12 +1121,15 @@
         <v>5.46</v>
       </c>
       <c r="F26" t="n">
-        <v>215030.7447</v>
+        <v>62731.53216745886</v>
       </c>
       <c r="G26" t="n">
-        <v>5.207499999999999</v>
+        <v>5.200833333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.39</v>
+        <v>5.47</v>
       </c>
       <c r="C27" t="n">
-        <v>5.44</v>
+        <v>5.46</v>
       </c>
       <c r="D27" t="n">
         <v>5.47</v>
       </c>
       <c r="E27" t="n">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
       <c r="F27" t="n">
-        <v>492036.056963072</v>
+        <v>215030.7447</v>
       </c>
       <c r="G27" t="n">
-        <v>5.214833333333332</v>
+        <v>5.207499999999999</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.43</v>
+        <v>5.39</v>
       </c>
       <c r="C28" t="n">
-        <v>5.46</v>
+        <v>5.44</v>
       </c>
       <c r="D28" t="n">
-        <v>5.46</v>
+        <v>5.47</v>
       </c>
       <c r="E28" t="n">
-        <v>5.32</v>
+        <v>5.31</v>
       </c>
       <c r="F28" t="n">
-        <v>63358.38580771558</v>
+        <v>492036.056963072</v>
       </c>
       <c r="G28" t="n">
-        <v>5.219166666666665</v>
+        <v>5.214833333333332</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="C29" t="n">
         <v>5.46</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5.36</v>
       </c>
       <c r="D29" t="n">
         <v>5.46</v>
       </c>
       <c r="E29" t="n">
-        <v>5.31</v>
+        <v>5.32</v>
       </c>
       <c r="F29" t="n">
-        <v>72897.44414308567</v>
+        <v>63358.38580771558</v>
       </c>
       <c r="G29" t="n">
-        <v>5.224333333333332</v>
+        <v>5.219166666666665</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.33</v>
+        <v>5.46</v>
       </c>
       <c r="C30" t="n">
-        <v>5.34</v>
+        <v>5.36</v>
       </c>
       <c r="D30" t="n">
-        <v>5.34</v>
+        <v>5.46</v>
       </c>
       <c r="E30" t="n">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="F30" t="n">
-        <v>1438082.983</v>
+        <v>72897.44414308567</v>
       </c>
       <c r="G30" t="n">
-        <v>5.229166666666665</v>
+        <v>5.224333333333332</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="C31" t="n">
         <v>5.34</v>
@@ -1171,15 +1263,18 @@
         <v>5.34</v>
       </c>
       <c r="E31" t="n">
-        <v>5.34</v>
+        <v>5.3</v>
       </c>
       <c r="F31" t="n">
-        <v>1200</v>
+        <v>1438082.983</v>
       </c>
       <c r="G31" t="n">
-        <v>5.233833333333331</v>
+        <v>5.229166666666665</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.31</v>
+        <v>5.34</v>
       </c>
       <c r="C32" t="n">
-        <v>5.15</v>
+        <v>5.34</v>
       </c>
       <c r="D32" t="n">
-        <v>5.31</v>
+        <v>5.34</v>
       </c>
       <c r="E32" t="n">
-        <v>5.15</v>
+        <v>5.34</v>
       </c>
       <c r="F32" t="n">
-        <v>2087919.3815</v>
+        <v>1200</v>
       </c>
       <c r="G32" t="n">
-        <v>5.235333333333331</v>
+        <v>5.233833333333331</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="C33" t="n">
-        <v>5.3</v>
+        <v>5.15</v>
       </c>
       <c r="D33" t="n">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="E33" t="n">
-        <v>5.3</v>
+        <v>5.15</v>
       </c>
       <c r="F33" t="n">
-        <v>550</v>
+        <v>2087919.3815</v>
       </c>
       <c r="G33" t="n">
-        <v>5.238333333333331</v>
+        <v>5.235333333333331</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="C34" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="D34" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="E34" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="F34" t="n">
-        <v>43598.101</v>
+        <v>550</v>
       </c>
       <c r="G34" t="n">
-        <v>5.238999999999998</v>
+        <v>5.238333333333331</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>5.25</v>
       </c>
       <c r="C35" t="n">
-        <v>5.15</v>
+        <v>5.25</v>
       </c>
       <c r="D35" t="n">
         <v>5.25</v>
       </c>
       <c r="E35" t="n">
-        <v>5.15</v>
+        <v>5.25</v>
       </c>
       <c r="F35" t="n">
-        <v>231627.4271</v>
+        <v>43598.101</v>
       </c>
       <c r="G35" t="n">
-        <v>5.238166666666664</v>
+        <v>5.238999999999998</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.18</v>
+        <v>5.25</v>
       </c>
       <c r="C36" t="n">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="D36" t="n">
-        <v>5.18</v>
+        <v>5.25</v>
       </c>
       <c r="E36" t="n">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="F36" t="n">
-        <v>7926.979</v>
+        <v>231627.4271</v>
       </c>
       <c r="G36" t="n">
-        <v>5.239499999999998</v>
+        <v>5.238166666666664</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.16</v>
+        <v>5.18</v>
       </c>
       <c r="C37" t="n">
-        <v>5.25</v>
+        <v>5.17</v>
       </c>
       <c r="D37" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="E37" t="n">
-        <v>5.16</v>
+        <v>5.17</v>
       </c>
       <c r="F37" t="n">
-        <v>105613.3775</v>
+        <v>7926.979</v>
       </c>
       <c r="G37" t="n">
-        <v>5.240499999999998</v>
+        <v>5.239499999999998</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.26</v>
+        <v>5.16</v>
       </c>
       <c r="C38" t="n">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="D38" t="n">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="E38" t="n">
-        <v>5.26</v>
+        <v>5.16</v>
       </c>
       <c r="F38" t="n">
-        <v>1430679.3081</v>
+        <v>105613.3775</v>
       </c>
       <c r="G38" t="n">
-        <v>5.242333333333332</v>
+        <v>5.240499999999998</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
       <c r="C39" t="n">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
       <c r="D39" t="n">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
       <c r="E39" t="n">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
       <c r="F39" t="n">
-        <v>24200.1182</v>
+        <v>1430679.3081</v>
       </c>
       <c r="G39" t="n">
-        <v>5.245666666666666</v>
+        <v>5.242333333333332</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.36</v>
+        <v>5.29</v>
       </c>
       <c r="C40" t="n">
-        <v>5.36</v>
+        <v>5.29</v>
       </c>
       <c r="D40" t="n">
-        <v>5.36</v>
+        <v>5.29</v>
       </c>
       <c r="E40" t="n">
-        <v>5.36</v>
+        <v>5.29</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>24200.1182</v>
       </c>
       <c r="G40" t="n">
-        <v>5.248499999999999</v>
+        <v>5.245666666666666</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.3</v>
+        <v>5.36</v>
       </c>
       <c r="C41" t="n">
-        <v>5.3</v>
+        <v>5.36</v>
       </c>
       <c r="D41" t="n">
-        <v>5.3</v>
+        <v>5.36</v>
       </c>
       <c r="E41" t="n">
-        <v>5.3</v>
+        <v>5.36</v>
       </c>
       <c r="F41" t="n">
-        <v>1684.7114</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>5.249666666666666</v>
+        <v>5.248499999999999</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>5.3</v>
       </c>
       <c r="F42" t="n">
-        <v>137.3053</v>
+        <v>1684.7114</v>
       </c>
       <c r="G42" t="n">
-        <v>5.251333333333333</v>
+        <v>5.249666666666666</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="C43" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="D43" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="E43" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>137.3053</v>
       </c>
       <c r="G43" t="n">
-        <v>5.2535</v>
+        <v>5.251333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>5.35</v>
       </c>
       <c r="F44" t="n">
-        <v>506.8588</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>5.256666666666666</v>
+        <v>5.2535</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.33</v>
+        <v>5.35</v>
       </c>
       <c r="C45" t="n">
         <v>5.35</v>
@@ -1535,15 +1669,18 @@
         <v>5.35</v>
       </c>
       <c r="E45" t="n">
-        <v>5.33</v>
+        <v>5.35</v>
       </c>
       <c r="F45" t="n">
-        <v>28137.03498616822</v>
+        <v>506.8588</v>
       </c>
       <c r="G45" t="n">
-        <v>5.259833333333333</v>
+        <v>5.256666666666666</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="C46" t="n">
-        <v>5.29</v>
+        <v>5.35</v>
       </c>
       <c r="D46" t="n">
-        <v>5.3</v>
+        <v>5.35</v>
       </c>
       <c r="E46" t="n">
-        <v>5.29</v>
+        <v>5.33</v>
       </c>
       <c r="F46" t="n">
-        <v>144757.556</v>
+        <v>28137.03498616822</v>
       </c>
       <c r="G46" t="n">
-        <v>5.262833333333333</v>
+        <v>5.259833333333333</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.28</v>
+        <v>5.3</v>
       </c>
       <c r="C47" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="D47" t="n">
-        <v>5.28</v>
+        <v>5.3</v>
       </c>
       <c r="E47" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="F47" t="n">
-        <v>28137.035</v>
+        <v>144757.556</v>
       </c>
       <c r="G47" t="n">
-        <v>5.266499999999999</v>
+        <v>5.262833333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="C48" t="n">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="D48" t="n">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="E48" t="n">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="F48" t="n">
-        <v>21930</v>
+        <v>28137.035</v>
       </c>
       <c r="G48" t="n">
-        <v>5.271999999999999</v>
+        <v>5.266499999999999</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>5.34</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>21930</v>
       </c>
       <c r="G49" t="n">
-        <v>5.276666666666666</v>
+        <v>5.271999999999999</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="C50" t="n">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="D50" t="n">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="E50" t="n">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="F50" t="n">
-        <v>3388.1936</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>5.281166666666666</v>
+        <v>5.276666666666666</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="C51" t="n">
-        <v>5.19</v>
+        <v>5.29</v>
       </c>
       <c r="D51" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="E51" t="n">
-        <v>5.19</v>
+        <v>5.29</v>
       </c>
       <c r="F51" t="n">
-        <v>670786.8859</v>
+        <v>3388.1936</v>
       </c>
       <c r="G51" t="n">
-        <v>5.282999999999999</v>
+        <v>5.281166666666666</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.17</v>
+        <v>5.28</v>
       </c>
       <c r="C52" t="n">
-        <v>5.24</v>
+        <v>5.19</v>
       </c>
       <c r="D52" t="n">
-        <v>5.24</v>
+        <v>5.28</v>
       </c>
       <c r="E52" t="n">
-        <v>5.09</v>
+        <v>5.19</v>
       </c>
       <c r="F52" t="n">
-        <v>1191528.9555</v>
+        <v>670786.8859</v>
       </c>
       <c r="G52" t="n">
-        <v>5.285666666666667</v>
+        <v>5.282999999999999</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.24</v>
+        <v>5.17</v>
       </c>
       <c r="C53" t="n">
         <v>5.24</v>
@@ -1743,15 +1901,18 @@
         <v>5.24</v>
       </c>
       <c r="E53" t="n">
-        <v>5.24</v>
+        <v>5.09</v>
       </c>
       <c r="F53" t="n">
-        <v>21685.717</v>
+        <v>1191528.9555</v>
       </c>
       <c r="G53" t="n">
-        <v>5.288666666666667</v>
+        <v>5.285666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="C54" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="D54" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="E54" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="F54" t="n">
-        <v>707351.8783</v>
+        <v>21685.717</v>
       </c>
       <c r="G54" t="n">
-        <v>5.289666666666666</v>
+        <v>5.288666666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>5.09</v>
       </c>
       <c r="C55" t="n">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="D55" t="n">
         <v>5.09</v>
       </c>
       <c r="E55" t="n">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="F55" t="n">
-        <v>203069.0817</v>
+        <v>707351.8783</v>
       </c>
       <c r="G55" t="n">
-        <v>5.2905</v>
+        <v>5.289666666666666</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.17</v>
+        <v>5.09</v>
       </c>
       <c r="C56" t="n">
-        <v>5.18</v>
+        <v>5.08</v>
       </c>
       <c r="D56" t="n">
-        <v>5.18</v>
+        <v>5.09</v>
       </c>
       <c r="E56" t="n">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="F56" t="n">
-        <v>192775.2915</v>
+        <v>203069.0817</v>
       </c>
       <c r="G56" t="n">
-        <v>5.292166666666668</v>
+        <v>5.2905</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.25</v>
+        <v>5.17</v>
       </c>
       <c r="C57" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="D57" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="E57" t="n">
-        <v>5.25</v>
+        <v>5.17</v>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>192775.2915</v>
       </c>
       <c r="G57" t="n">
-        <v>5.295333333333334</v>
+        <v>5.292166666666668</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="C58" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="D58" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="E58" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="F58" t="n">
-        <v>9683.9288</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>5.294666666666667</v>
+        <v>5.295333333333334</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.17</v>
+        <v>5.09</v>
       </c>
       <c r="C59" t="n">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="D59" t="n">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="E59" t="n">
-        <v>5.17</v>
+        <v>5.09</v>
       </c>
       <c r="F59" t="n">
-        <v>18602891.009</v>
+        <v>9683.9288</v>
       </c>
       <c r="G59" t="n">
-        <v>5.296666666666667</v>
+        <v>5.294666666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.09</v>
+        <v>5.17</v>
       </c>
       <c r="C60" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="D60" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="E60" t="n">
-        <v>5.09</v>
+        <v>5.17</v>
       </c>
       <c r="F60" t="n">
-        <v>284034.8952</v>
+        <v>18602891.009</v>
       </c>
       <c r="G60" t="n">
-        <v>5.296499999999999</v>
+        <v>5.296666666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="C61" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="D61" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="E61" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>284034.8952</v>
       </c>
       <c r="G61" t="n">
-        <v>5.297</v>
+        <v>5.296499999999999</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="C62" t="n">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="D62" t="n">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="E62" t="n">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="F62" t="n">
-        <v>9438.032999999999</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>5.296666666666667</v>
+        <v>5.297</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="C63" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="D63" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="E63" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="F63" t="n">
-        <v>13875.04835589942</v>
+        <v>9438.032999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>5.295500000000001</v>
+        <v>5.296666666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.12</v>
+        <v>5.17</v>
       </c>
       <c r="C64" t="n">
-        <v>5.1</v>
+        <v>5.17</v>
       </c>
       <c r="D64" t="n">
-        <v>5.12</v>
+        <v>5.17</v>
       </c>
       <c r="E64" t="n">
-        <v>5.1</v>
+        <v>5.17</v>
       </c>
       <c r="F64" t="n">
-        <v>277955.2069</v>
+        <v>13875.04835589942</v>
       </c>
       <c r="G64" t="n">
-        <v>5.293000000000001</v>
+        <v>5.295500000000001</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="C65" t="n">
         <v>5.1</v>
       </c>
       <c r="D65" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="E65" t="n">
         <v>5.1</v>
       </c>
       <c r="F65" t="n">
-        <v>21528.7063</v>
+        <v>277955.2069</v>
       </c>
       <c r="G65" t="n">
-        <v>5.290500000000001</v>
+        <v>5.293000000000001</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>5.1</v>
       </c>
       <c r="F66" t="n">
-        <v>4119.2708</v>
+        <v>21528.7063</v>
       </c>
       <c r="G66" t="n">
-        <v>5.288333333333335</v>
+        <v>5.290500000000001</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>5.1</v>
       </c>
       <c r="C67" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
       <c r="D67" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
       <c r="E67" t="n">
         <v>5.1</v>
       </c>
       <c r="F67" t="n">
-        <v>16918743.5368</v>
+        <v>4119.2708</v>
       </c>
       <c r="G67" t="n">
-        <v>5.287666666666667</v>
+        <v>5.288333333333335</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.13</v>
+        <v>5.1</v>
       </c>
       <c r="C68" t="n">
-        <v>5.09</v>
+        <v>5.19</v>
       </c>
       <c r="D68" t="n">
-        <v>5.13</v>
+        <v>5.19</v>
       </c>
       <c r="E68" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="F68" t="n">
-        <v>97017.5803</v>
+        <v>16918743.5368</v>
       </c>
       <c r="G68" t="n">
-        <v>5.285</v>
+        <v>5.287666666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.19</v>
+        <v>5.13</v>
       </c>
       <c r="C69" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="D69" t="n">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="E69" t="n">
-        <v>5.19</v>
+        <v>5.09</v>
       </c>
       <c r="F69" t="n">
-        <v>111</v>
+        <v>97017.5803</v>
       </c>
       <c r="G69" t="n">
-        <v>5.284000000000002</v>
+        <v>5.285</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,7 +2385,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.22</v>
+        <v>5.19</v>
       </c>
       <c r="C70" t="n">
         <v>5.22</v>
@@ -2185,15 +2394,18 @@
         <v>5.22</v>
       </c>
       <c r="E70" t="n">
-        <v>5.22</v>
+        <v>5.19</v>
       </c>
       <c r="F70" t="n">
-        <v>40091.9177</v>
+        <v>111</v>
       </c>
       <c r="G70" t="n">
-        <v>5.282666666666668</v>
+        <v>5.284000000000002</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="C71" t="n">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="D71" t="n">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="E71" t="n">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="F71" t="n">
-        <v>980</v>
+        <v>40091.9177</v>
       </c>
       <c r="G71" t="n">
-        <v>5.280666666666668</v>
+        <v>5.282666666666668</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="C72" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="D72" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="E72" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="F72" t="n">
-        <v>13893.6102</v>
+        <v>980</v>
       </c>
       <c r="G72" t="n">
-        <v>5.278166666666667</v>
+        <v>5.280666666666668</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="C73" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="D73" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="E73" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="F73" t="n">
-        <v>13100</v>
+        <v>13893.6102</v>
       </c>
       <c r="G73" t="n">
-        <v>5.275500000000002</v>
+        <v>5.278166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="C74" t="n">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="D74" t="n">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="E74" t="n">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="F74" t="n">
-        <v>13009.4994</v>
+        <v>13100</v>
       </c>
       <c r="G74" t="n">
-        <v>5.273000000000001</v>
+        <v>5.275500000000002</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.14</v>
+        <v>5.18</v>
       </c>
       <c r="C75" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="D75" t="n">
-        <v>5.14</v>
+        <v>5.18</v>
       </c>
       <c r="E75" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="F75" t="n">
-        <v>460674.5494</v>
+        <v>13009.4994</v>
       </c>
       <c r="G75" t="n">
-        <v>5.267833333333335</v>
+        <v>5.273000000000001</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="C76" t="n">
-        <v>5.19</v>
+        <v>5.09</v>
       </c>
       <c r="D76" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="E76" t="n">
-        <v>5.13</v>
+        <v>5.09</v>
       </c>
       <c r="F76" t="n">
-        <v>64626.60670520231</v>
+        <v>460674.5494</v>
       </c>
       <c r="G76" t="n">
-        <v>5.266000000000002</v>
+        <v>5.267833333333335</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C77" t="n">
         <v>5.19</v>
       </c>
-      <c r="C77" t="n">
-        <v>5.15</v>
-      </c>
       <c r="D77" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="E77" t="n">
-        <v>5.15</v>
+        <v>5.13</v>
       </c>
       <c r="F77" t="n">
-        <v>34907.76317541189</v>
+        <v>64626.60670520231</v>
       </c>
       <c r="G77" t="n">
-        <v>5.262000000000001</v>
+        <v>5.266000000000002</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.21</v>
+        <v>5.19</v>
       </c>
       <c r="C78" t="n">
-        <v>5.14</v>
+        <v>5.15</v>
       </c>
       <c r="D78" t="n">
         <v>5.21</v>
       </c>
       <c r="E78" t="n">
-        <v>5.14</v>
+        <v>5.15</v>
       </c>
       <c r="F78" t="n">
-        <v>28436.4074</v>
+        <v>34907.76317541189</v>
       </c>
       <c r="G78" t="n">
-        <v>5.257833333333335</v>
+        <v>5.262000000000001</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="C79" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="D79" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="E79" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>28436.4074</v>
       </c>
       <c r="G79" t="n">
-        <v>5.254666666666668</v>
+        <v>5.257833333333335</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.11</v>
+        <v>5.2</v>
       </c>
       <c r="C80" t="n">
-        <v>5.11</v>
+        <v>5.2</v>
       </c>
       <c r="D80" t="n">
-        <v>5.11</v>
+        <v>5.2</v>
       </c>
       <c r="E80" t="n">
-        <v>5.11</v>
+        <v>5.2</v>
       </c>
       <c r="F80" t="n">
-        <v>9347.338299999999</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>5.250000000000002</v>
+        <v>5.254666666666668</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>5.11</v>
       </c>
       <c r="C81" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="D81" t="n">
         <v>5.11</v>
       </c>
       <c r="E81" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="F81" t="n">
-        <v>118268.3505</v>
+        <v>9347.338299999999</v>
       </c>
       <c r="G81" t="n">
-        <v>5.244833333333335</v>
+        <v>5.250000000000002</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="C82" t="n">
         <v>5.1</v>
       </c>
       <c r="D82" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="E82" t="n">
         <v>5.1</v>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>118268.3505</v>
       </c>
       <c r="G82" t="n">
-        <v>5.239000000000003</v>
+        <v>5.244833333333335</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="C83" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="D83" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="E83" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="F83" t="n">
-        <v>71000</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>5.233000000000002</v>
+        <v>5.239000000000003</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>5.09</v>
       </c>
       <c r="F84" t="n">
-        <v>43316.9365</v>
+        <v>71000</v>
       </c>
       <c r="G84" t="n">
-        <v>5.226666666666668</v>
+        <v>5.233000000000002</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="C85" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="D85" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="E85" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="F85" t="n">
-        <v>9224.914500000001</v>
+        <v>43316.9365</v>
       </c>
       <c r="G85" t="n">
-        <v>5.220500000000001</v>
+        <v>5.226666666666668</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.11</v>
+        <v>5.1</v>
       </c>
       <c r="C86" t="n">
-        <v>5.11</v>
+        <v>5.1</v>
       </c>
       <c r="D86" t="n">
-        <v>5.11</v>
+        <v>5.1</v>
       </c>
       <c r="E86" t="n">
-        <v>5.11</v>
+        <v>5.1</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>9224.914500000001</v>
       </c>
       <c r="G86" t="n">
-        <v>5.214666666666669</v>
+        <v>5.220500000000001</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.09</v>
+        <v>5.11</v>
       </c>
       <c r="C87" t="n">
-        <v>5.09</v>
+        <v>5.11</v>
       </c>
       <c r="D87" t="n">
-        <v>5.09</v>
+        <v>5.11</v>
       </c>
       <c r="E87" t="n">
-        <v>5.09</v>
+        <v>5.11</v>
       </c>
       <c r="F87" t="n">
-        <v>26323.0759</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>5.208833333333335</v>
+        <v>5.214666666666669</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>5.09</v>
       </c>
       <c r="C88" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="D88" t="n">
         <v>5.09</v>
       </c>
       <c r="E88" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="F88" t="n">
-        <v>68689.71219999999</v>
+        <v>26323.0759</v>
       </c>
       <c r="G88" t="n">
-        <v>5.202333333333335</v>
+        <v>5.208833333333335</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C89" t="n">
         <v>5.07</v>
       </c>
-      <c r="C89" t="n">
-        <v>5.06</v>
-      </c>
       <c r="D89" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E89" t="n">
         <v>5.07</v>
       </c>
-      <c r="E89" t="n">
-        <v>5.06</v>
-      </c>
       <c r="F89" t="n">
-        <v>275699.6799</v>
+        <v>68689.71219999999</v>
       </c>
       <c r="G89" t="n">
-        <v>5.197333333333335</v>
+        <v>5.202333333333335</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>5.07</v>
       </c>
       <c r="C90" t="n">
-        <v>5.07</v>
+        <v>5.06</v>
       </c>
       <c r="D90" t="n">
         <v>5.07</v>
       </c>
       <c r="E90" t="n">
-        <v>5.07</v>
+        <v>5.06</v>
       </c>
       <c r="F90" t="n">
-        <v>19128.5023</v>
+        <v>275699.6799</v>
       </c>
       <c r="G90" t="n">
-        <v>5.192833333333335</v>
+        <v>5.197333333333335</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>5.07</v>
       </c>
       <c r="F91" t="n">
-        <v>227750.8093</v>
+        <v>19128.5023</v>
       </c>
       <c r="G91" t="n">
-        <v>5.188333333333335</v>
+        <v>5.192833333333335</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>5.07</v>
       </c>
       <c r="C92" t="n">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="D92" t="n">
         <v>5.07</v>
       </c>
       <c r="E92" t="n">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="F92" t="n">
-        <v>257456.4864</v>
+        <v>227750.8093</v>
       </c>
       <c r="G92" t="n">
-        <v>5.186833333333336</v>
+        <v>5.188333333333335</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="C93" t="n">
-        <v>5.14</v>
+        <v>5.06</v>
       </c>
       <c r="D93" t="n">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="E93" t="n">
-        <v>5.14</v>
+        <v>5.06</v>
       </c>
       <c r="F93" t="n">
-        <v>300</v>
+        <v>257456.4864</v>
       </c>
       <c r="G93" t="n">
-        <v>5.184166666666669</v>
+        <v>5.186833333333336</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.09</v>
+        <v>5.14</v>
       </c>
       <c r="C94" t="n">
-        <v>5.09</v>
+        <v>5.14</v>
       </c>
       <c r="D94" t="n">
-        <v>5.09</v>
+        <v>5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>5.09</v>
+        <v>5.14</v>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G94" t="n">
-        <v>5.181500000000002</v>
+        <v>5.184166666666669</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="C95" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="D95" t="n">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="E95" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="F95" t="n">
-        <v>161735.4703</v>
+        <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>5.180166666666668</v>
+        <v>5.181500000000002</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.07</v>
+        <v>5.08</v>
       </c>
       <c r="C96" t="n">
         <v>5.07</v>
       </c>
       <c r="D96" t="n">
-        <v>5.07</v>
+        <v>5.08</v>
       </c>
       <c r="E96" t="n">
         <v>5.07</v>
       </c>
       <c r="F96" t="n">
-        <v>29034.8646</v>
+        <v>161735.4703</v>
       </c>
       <c r="G96" t="n">
-        <v>5.178500000000001</v>
+        <v>5.180166666666668</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>5.07</v>
       </c>
       <c r="F97" t="n">
-        <v>91711.7864</v>
+        <v>29034.8646</v>
       </c>
       <c r="G97" t="n">
-        <v>5.175500000000001</v>
+        <v>5.178500000000001</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>5.07</v>
       </c>
       <c r="F98" t="n">
-        <v>26683.13</v>
+        <v>91711.7864</v>
       </c>
       <c r="G98" t="n">
-        <v>5.171666666666668</v>
+        <v>5.175500000000001</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>5.07</v>
       </c>
       <c r="F99" t="n">
-        <v>29277.5874</v>
+        <v>26683.13</v>
       </c>
       <c r="G99" t="n">
-        <v>5.168000000000001</v>
+        <v>5.171666666666668</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>5.07</v>
       </c>
       <c r="C100" t="n">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="D100" t="n">
         <v>5.07</v>
       </c>
       <c r="E100" t="n">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="F100" t="n">
-        <v>289012.8899</v>
+        <v>29277.5874</v>
       </c>
       <c r="G100" t="n">
-        <v>5.163</v>
+        <v>5.168000000000001</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="C101" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="D101" t="n">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="E101" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="F101" t="n">
-        <v>500</v>
+        <v>289012.8899</v>
       </c>
       <c r="G101" t="n">
-        <v>5.1595</v>
+        <v>5.163</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="C102" t="n">
-        <v>5.05</v>
+        <v>5.09</v>
       </c>
       <c r="D102" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="E102" t="n">
-        <v>5.05</v>
+        <v>5.09</v>
       </c>
       <c r="F102" t="n">
-        <v>2428893.8819</v>
+        <v>500</v>
       </c>
       <c r="G102" t="n">
-        <v>5.155333333333333</v>
+        <v>5.1595</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C103" t="n">
         <v>5.05</v>
       </c>
-      <c r="C103" t="n">
-        <v>5</v>
-      </c>
       <c r="D103" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E103" t="n">
         <v>5.05</v>
       </c>
-      <c r="E103" t="n">
-        <v>5</v>
-      </c>
       <c r="F103" t="n">
-        <v>603149.4020999999</v>
+        <v>2428893.8819</v>
       </c>
       <c r="G103" t="n">
-        <v>5.1495</v>
+        <v>5.155333333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.01</v>
+        <v>5.05</v>
       </c>
       <c r="C104" t="n">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
         <v>5.05</v>
       </c>
       <c r="E104" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>244182.2601</v>
+        <v>603149.4020999999</v>
       </c>
       <c r="G104" t="n">
-        <v>5.144499999999999</v>
+        <v>5.1495</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="C105" t="n">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="D105" t="n">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="E105" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="F105" t="n">
-        <v>540.0486</v>
+        <v>244182.2601</v>
       </c>
       <c r="G105" t="n">
-        <v>5.139333333333332</v>
+        <v>5.144499999999999</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.01</v>
+        <v>5.04</v>
       </c>
       <c r="C106" t="n">
-        <v>5.01</v>
+        <v>5.04</v>
       </c>
       <c r="D106" t="n">
-        <v>5.01</v>
+        <v>5.04</v>
       </c>
       <c r="E106" t="n">
-        <v>5.01</v>
+        <v>5.04</v>
       </c>
       <c r="F106" t="n">
-        <v>3306.769</v>
+        <v>540.0486</v>
       </c>
       <c r="G106" t="n">
-        <v>5.134666666666665</v>
+        <v>5.139333333333332</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>5.01</v>
       </c>
       <c r="F107" t="n">
-        <v>157619.5041</v>
+        <v>3306.769</v>
       </c>
       <c r="G107" t="n">
-        <v>5.130166666666666</v>
+        <v>5.134666666666665</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>5.01</v>
       </c>
       <c r="F108" t="n">
-        <v>81115.63</v>
+        <v>157619.5041</v>
       </c>
       <c r="G108" t="n">
-        <v>5.124666666666666</v>
+        <v>5.130166666666666</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>5.01</v>
       </c>
       <c r="F109" t="n">
-        <v>195279.2668</v>
+        <v>81115.63</v>
       </c>
       <c r="G109" t="n">
-        <v>5.119166666666667</v>
+        <v>5.124666666666666</v>
       </c>
       <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>5.01</v>
       </c>
       <c r="F110" t="n">
-        <v>157718.3865</v>
+        <v>195279.2668</v>
       </c>
       <c r="G110" t="n">
-        <v>5.114499999999999</v>
+        <v>5.119166666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>5.01</v>
       </c>
       <c r="F111" t="n">
-        <v>44093.6042</v>
+        <v>157718.3865</v>
       </c>
       <c r="G111" t="n">
-        <v>5.111499999999999</v>
+        <v>5.114499999999999</v>
       </c>
       <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>5.01</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="D112" t="n">
         <v>5.01</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="F112" t="n">
-        <v>44193.6042</v>
+        <v>44093.6042</v>
       </c>
       <c r="G112" t="n">
-        <v>5.107499999999999</v>
+        <v>5.111499999999999</v>
       </c>
       <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>5.01</v>
       </c>
       <c r="C113" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
         <v>5.01</v>
       </c>
       <c r="E113" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="F113" t="n">
-        <v>26811.97</v>
+        <v>44193.6042</v>
       </c>
       <c r="G113" t="n">
-        <v>5.103666666666665</v>
+        <v>5.107499999999999</v>
       </c>
       <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>5.01</v>
       </c>
       <c r="C114" t="n">
-        <v>5.15</v>
+        <v>5.01</v>
       </c>
       <c r="D114" t="n">
-        <v>5.15</v>
+        <v>5.01</v>
       </c>
       <c r="E114" t="n">
         <v>5.01</v>
       </c>
       <c r="F114" t="n">
-        <v>260680.7773916505</v>
+        <v>26811.97</v>
       </c>
       <c r="G114" t="n">
-        <v>5.104666666666665</v>
+        <v>5.103666666666665</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,7 +3690,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.15</v>
+        <v>5.01</v>
       </c>
       <c r="C115" t="n">
         <v>5.15</v>
@@ -3355,15 +3699,18 @@
         <v>5.15</v>
       </c>
       <c r="E115" t="n">
-        <v>5.15</v>
+        <v>5.01</v>
       </c>
       <c r="F115" t="n">
-        <v>75258.05825242719</v>
+        <v>260680.7773916505</v>
       </c>
       <c r="G115" t="n">
-        <v>5.105833333333332</v>
+        <v>5.104666666666665</v>
       </c>
       <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,21 +3722,24 @@
         <v>5.15</v>
       </c>
       <c r="C116" t="n">
-        <v>5.21</v>
+        <v>5.15</v>
       </c>
       <c r="D116" t="n">
-        <v>5.21</v>
+        <v>5.15</v>
       </c>
       <c r="E116" t="n">
         <v>5.15</v>
       </c>
       <c r="F116" t="n">
-        <v>34025.25111542329</v>
+        <v>75258.05825242719</v>
       </c>
       <c r="G116" t="n">
-        <v>5.106333333333331</v>
+        <v>5.105833333333332</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,7 +3748,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.21</v>
+        <v>5.15</v>
       </c>
       <c r="C117" t="n">
         <v>5.21</v>
@@ -3407,15 +3757,18 @@
         <v>5.21</v>
       </c>
       <c r="E117" t="n">
-        <v>5.21</v>
+        <v>5.15</v>
       </c>
       <c r="F117" t="n">
-        <v>5159.117082533589</v>
+        <v>34025.25111542329</v>
       </c>
       <c r="G117" t="n">
-        <v>5.105666666666664</v>
+        <v>5.106333333333331</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="C118" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="D118" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="E118" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="F118" t="n">
-        <v>10392.67822736031</v>
+        <v>5159.117082533589</v>
       </c>
       <c r="G118" t="n">
-        <v>5.107333333333331</v>
+        <v>5.105666666666664</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>5.19</v>
       </c>
       <c r="F119" t="n">
-        <v>5196.339113680154</v>
+        <v>10392.67822736031</v>
       </c>
       <c r="G119" t="n">
-        <v>5.106333333333331</v>
+        <v>5.107333333333331</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="C120" t="n">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="D120" t="n">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="E120" t="n">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="F120" t="n">
-        <v>6868.3722</v>
+        <v>5196.339113680154</v>
       </c>
       <c r="G120" t="n">
-        <v>5.106499999999999</v>
+        <v>5.106333333333331</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.05</v>
+        <v>5.1</v>
       </c>
       <c r="C121" t="n">
-        <v>5.01</v>
+        <v>5.1</v>
       </c>
       <c r="D121" t="n">
-        <v>5.05</v>
+        <v>5.1</v>
       </c>
       <c r="E121" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="F121" t="n">
-        <v>635234.5299</v>
+        <v>6868.3722</v>
       </c>
       <c r="G121" t="n">
-        <v>5.102999999999998</v>
+        <v>5.106499999999999</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.08</v>
+        <v>5.05</v>
       </c>
       <c r="C122" t="n">
-        <v>5.1</v>
+        <v>5.01</v>
       </c>
       <c r="D122" t="n">
-        <v>5.1</v>
+        <v>5.05</v>
       </c>
       <c r="E122" t="n">
-        <v>5.08</v>
+        <v>5</v>
       </c>
       <c r="F122" t="n">
-        <v>106701.0676</v>
+        <v>635234.5299</v>
       </c>
       <c r="G122" t="n">
-        <v>5.101499999999999</v>
+        <v>5.102999999999998</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3922,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.03</v>
+        <v>5.08</v>
       </c>
       <c r="C123" t="n">
         <v>5.1</v>
@@ -3563,15 +3931,18 @@
         <v>5.1</v>
       </c>
       <c r="E123" t="n">
-        <v>5.03</v>
+        <v>5.08</v>
       </c>
       <c r="F123" t="n">
-        <v>283.3905</v>
+        <v>106701.0676</v>
       </c>
       <c r="G123" t="n">
-        <v>5.100333333333332</v>
+        <v>5.101499999999999</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.02</v>
+        <v>5.03</v>
       </c>
       <c r="C124" t="n">
-        <v>5.02</v>
+        <v>5.1</v>
       </c>
       <c r="D124" t="n">
-        <v>5.02</v>
+        <v>5.1</v>
       </c>
       <c r="E124" t="n">
-        <v>5.02</v>
+        <v>5.03</v>
       </c>
       <c r="F124" t="n">
-        <v>13385.2317</v>
+        <v>283.3905</v>
       </c>
       <c r="G124" t="n">
-        <v>5.098999999999998</v>
+        <v>5.100333333333332</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
       <c r="C125" t="n">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
       <c r="D125" t="n">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
       <c r="E125" t="n">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
       <c r="F125" t="n">
-        <v>555</v>
+        <v>13385.2317</v>
       </c>
       <c r="G125" t="n">
-        <v>5.098833333333331</v>
+        <v>5.098999999999998</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="C126" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="D126" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="E126" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="F126" t="n">
-        <v>115098.9665</v>
+        <v>555</v>
       </c>
       <c r="G126" t="n">
-        <v>5.097499999999997</v>
+        <v>5.098833333333331</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>5.02</v>
       </c>
       <c r="F127" t="n">
-        <v>49875</v>
+        <v>115098.9665</v>
       </c>
       <c r="G127" t="n">
-        <v>5.094666666666663</v>
+        <v>5.097499999999997</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.04</v>
+        <v>5.02</v>
       </c>
       <c r="C128" t="n">
-        <v>5.04</v>
+        <v>5.02</v>
       </c>
       <c r="D128" t="n">
-        <v>5.04</v>
+        <v>5.02</v>
       </c>
       <c r="E128" t="n">
-        <v>5.04</v>
+        <v>5.02</v>
       </c>
       <c r="F128" t="n">
-        <v>1130</v>
+        <v>49875</v>
       </c>
       <c r="G128" t="n">
-        <v>5.093833333333331</v>
+        <v>5.094666666666663</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.02</v>
+        <v>5.04</v>
       </c>
       <c r="C129" t="n">
-        <v>5.02</v>
+        <v>5.04</v>
       </c>
       <c r="D129" t="n">
-        <v>5.02</v>
+        <v>5.04</v>
       </c>
       <c r="E129" t="n">
-        <v>5.02</v>
+        <v>5.04</v>
       </c>
       <c r="F129" t="n">
-        <v>44211.414</v>
+        <v>1130</v>
       </c>
       <c r="G129" t="n">
-        <v>5.090499999999996</v>
+        <v>5.093833333333331</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.03</v>
+        <v>5.02</v>
       </c>
       <c r="C130" t="n">
-        <v>5.03</v>
+        <v>5.02</v>
       </c>
       <c r="D130" t="n">
-        <v>5.03</v>
+        <v>5.02</v>
       </c>
       <c r="E130" t="n">
-        <v>5.03</v>
+        <v>5.02</v>
       </c>
       <c r="F130" t="n">
-        <v>1651.2643</v>
+        <v>44211.414</v>
       </c>
       <c r="G130" t="n">
-        <v>5.087333333333329</v>
+        <v>5.090499999999996</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>5.03</v>
       </c>
       <c r="F131" t="n">
-        <v>315.0951</v>
+        <v>1651.2643</v>
       </c>
       <c r="G131" t="n">
-        <v>5.084333333333329</v>
+        <v>5.087333333333329</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>5.03</v>
       </c>
       <c r="F132" t="n">
-        <v>100</v>
+        <v>315.0951</v>
       </c>
       <c r="G132" t="n">
-        <v>5.081499999999995</v>
+        <v>5.084333333333329</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="C133" t="n">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="D133" t="n">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="E133" t="n">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="F133" t="n">
         <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>5.079999999999995</v>
+        <v>5.081499999999995</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +4244,24 @@
         <v>5.08</v>
       </c>
       <c r="C134" t="n">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="D134" t="n">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="E134" t="n">
         <v>5.08</v>
       </c>
       <c r="F134" t="n">
-        <v>102431.9629</v>
+        <v>100</v>
       </c>
       <c r="G134" t="n">
-        <v>5.078666666666662</v>
+        <v>5.079999999999995</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,7 +4270,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="C135" t="n">
         <v>5.1</v>
@@ -3875,15 +4279,18 @@
         <v>5.1</v>
       </c>
       <c r="E135" t="n">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="F135" t="n">
-        <v>23793.9683</v>
+        <v>102431.9629</v>
       </c>
       <c r="G135" t="n">
-        <v>5.078833333333329</v>
+        <v>5.078666666666662</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="C136" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="D136" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="E136" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="F136" t="n">
-        <v>2890.9453</v>
+        <v>23793.9683</v>
       </c>
       <c r="G136" t="n">
-        <v>5.077166666666661</v>
+        <v>5.078833333333329</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>5.09</v>
       </c>
       <c r="F137" t="n">
-        <v>2601.8507</v>
+        <v>2890.9453</v>
       </c>
       <c r="G137" t="n">
-        <v>5.076166666666662</v>
+        <v>5.077166666666661</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>5.09</v>
       </c>
       <c r="F138" t="n">
-        <v>2398.1493</v>
+        <v>2601.8507</v>
       </c>
       <c r="G138" t="n">
-        <v>5.075333333333329</v>
+        <v>5.076166666666662</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>5.09</v>
       </c>
       <c r="D139" t="n">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>5.09</v>
       </c>
       <c r="F139" t="n">
-        <v>73154.7945</v>
+        <v>2398.1493</v>
       </c>
       <c r="G139" t="n">
-        <v>5.071999999999995</v>
+        <v>5.075333333333329</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.05</v>
+        <v>5.03</v>
       </c>
       <c r="C140" t="n">
-        <v>5.06</v>
+        <v>5</v>
       </c>
       <c r="D140" t="n">
-        <v>5.06</v>
+        <v>5.03</v>
       </c>
       <c r="E140" t="n">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="F140" t="n">
-        <v>18960319.7461</v>
+        <v>73154.7945</v>
       </c>
       <c r="G140" t="n">
-        <v>5.071166666666661</v>
+        <v>5.071999999999995</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4444,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.06</v>
+        <v>5.05</v>
       </c>
       <c r="C141" t="n">
         <v>5.06</v>
@@ -4031,15 +4453,18 @@
         <v>5.06</v>
       </c>
       <c r="E141" t="n">
-        <v>5.06</v>
+        <v>5.05</v>
       </c>
       <c r="F141" t="n">
-        <v>18500000</v>
+        <v>18960319.7461</v>
       </c>
       <c r="G141" t="n">
-        <v>5.070499999999995</v>
+        <v>5.071166666666661</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,7 +4473,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.04</v>
+        <v>5.06</v>
       </c>
       <c r="C142" t="n">
         <v>5.06</v>
@@ -4057,15 +4482,18 @@
         <v>5.06</v>
       </c>
       <c r="E142" t="n">
-        <v>5.04</v>
+        <v>5.06</v>
       </c>
       <c r="F142" t="n">
-        <v>18133351.5734</v>
+        <v>18500000</v>
       </c>
       <c r="G142" t="n">
-        <v>5.069833333333327</v>
+        <v>5.070499999999995</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4077,21 +4505,24 @@
         <v>5.04</v>
       </c>
       <c r="C143" t="n">
-        <v>5.04</v>
+        <v>5.06</v>
       </c>
       <c r="D143" t="n">
-        <v>5.04</v>
+        <v>5.06</v>
       </c>
       <c r="E143" t="n">
         <v>5.04</v>
       </c>
       <c r="F143" t="n">
-        <v>6695.5047</v>
+        <v>18133351.5734</v>
       </c>
       <c r="G143" t="n">
-        <v>5.068999999999995</v>
+        <v>5.069833333333327</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.07</v>
+        <v>5.04</v>
       </c>
       <c r="C144" t="n">
-        <v>5.07</v>
+        <v>5.04</v>
       </c>
       <c r="D144" t="n">
-        <v>5.07</v>
+        <v>5.04</v>
       </c>
       <c r="E144" t="n">
-        <v>5.07</v>
+        <v>5.04</v>
       </c>
       <c r="F144" t="n">
-        <v>9300000</v>
+        <v>6695.5047</v>
       </c>
       <c r="G144" t="n">
-        <v>5.068666666666662</v>
+        <v>5.068999999999995</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>5.07</v>
       </c>
       <c r="F145" t="n">
-        <v>9200000</v>
+        <v>9300000</v>
       </c>
       <c r="G145" t="n">
-        <v>5.068166666666661</v>
+        <v>5.068666666666662</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="C146" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="D146" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="E146" t="n">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="F146" t="n">
-        <v>257456.0326</v>
+        <v>9200000</v>
       </c>
       <c r="G146" t="n">
-        <v>5.067999999999995</v>
+        <v>5.068166666666661</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,7 +4618,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="C147" t="n">
         <v>5.1</v>
@@ -4187,15 +4627,18 @@
         <v>5.1</v>
       </c>
       <c r="E147" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="F147" t="n">
-        <v>3873.4247</v>
+        <v>257456.0326</v>
       </c>
       <c r="G147" t="n">
-        <v>5.068166666666662</v>
+        <v>5.067999999999995</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="C148" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="D148" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="E148" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="F148" t="n">
-        <v>6854.1642</v>
+        <v>3873.4247</v>
       </c>
       <c r="G148" t="n">
-        <v>5.069499999999995</v>
+        <v>5.068166666666662</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="C149" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="D149" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="E149" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="F149" t="n">
-        <v>17653.993</v>
+        <v>6854.1642</v>
       </c>
       <c r="G149" t="n">
-        <v>5.071666666666662</v>
+        <v>5.069499999999995</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4259,21 +4708,24 @@
         <v>5.19</v>
       </c>
       <c r="C150" t="n">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="D150" t="n">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="E150" t="n">
         <v>5.19</v>
       </c>
       <c r="F150" t="n">
-        <v>187707.3479909615</v>
+        <v>17653.993</v>
       </c>
       <c r="G150" t="n">
-        <v>5.073833333333329</v>
+        <v>5.071666666666662</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="C151" t="n">
         <v>5.2</v>
       </c>
-      <c r="C151" t="n">
-        <v>5.21</v>
-      </c>
       <c r="D151" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="E151" t="n">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="F151" t="n">
-        <v>162206.9015314953</v>
+        <v>187707.3479909615</v>
       </c>
       <c r="G151" t="n">
-        <v>5.076166666666662</v>
+        <v>5.073833333333329</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,7 +4763,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="C152" t="n">
         <v>5.21</v>
@@ -4317,15 +4772,18 @@
         <v>5.21</v>
       </c>
       <c r="E152" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="F152" t="n">
-        <v>37506.00767754319</v>
+        <v>162206.9015314953</v>
       </c>
       <c r="G152" t="n">
-        <v>5.078666666666662</v>
+        <v>5.076166666666662</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.22</v>
+        <v>5.21</v>
       </c>
       <c r="C153" t="n">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="D153" t="n">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="E153" t="n">
-        <v>5.22</v>
+        <v>5.21</v>
       </c>
       <c r="F153" t="n">
-        <v>40212.1614</v>
+        <v>37506.00767754319</v>
       </c>
       <c r="G153" t="n">
-        <v>5.080166666666662</v>
+        <v>5.078666666666662</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="C154" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="D154" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="E154" t="n">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="F154" t="n">
-        <v>17176.17285714286</v>
+        <v>40212.1614</v>
       </c>
       <c r="G154" t="n">
-        <v>5.082833333333329</v>
+        <v>5.080166666666662</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4389,21 +4853,24 @@
         <v>5.25</v>
       </c>
       <c r="C155" t="n">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="D155" t="n">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="E155" t="n">
         <v>5.25</v>
       </c>
       <c r="F155" t="n">
-        <v>963301.9689299294</v>
+        <v>17176.17285714286</v>
       </c>
       <c r="G155" t="n">
-        <v>5.086666666666662</v>
+        <v>5.082833333333329</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,7 +4879,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.29</v>
+        <v>5.25</v>
       </c>
       <c r="C156" t="n">
         <v>5.3</v>
@@ -4421,15 +4888,18 @@
         <v>5.3</v>
       </c>
       <c r="E156" t="n">
-        <v>5.29</v>
+        <v>5.25</v>
       </c>
       <c r="F156" t="n">
-        <v>321601.6844</v>
+        <v>963301.9689299294</v>
       </c>
       <c r="G156" t="n">
-        <v>5.090499999999996</v>
+        <v>5.086666666666662</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="C157" t="n">
         <v>5.3</v>
       </c>
-      <c r="C157" t="n">
-        <v>5.31</v>
-      </c>
       <c r="D157" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="E157" t="n">
-        <v>5.3</v>
+        <v>5.29</v>
       </c>
       <c r="F157" t="n">
-        <v>1781.790687594967</v>
+        <v>321601.6844</v>
       </c>
       <c r="G157" t="n">
-        <v>5.094499999999996</v>
+        <v>5.090499999999996</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,7 +4937,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="C158" t="n">
         <v>5.31</v>
@@ -4473,15 +4946,18 @@
         <v>5.31</v>
       </c>
       <c r="E158" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="F158" t="n">
-        <v>20000</v>
+        <v>1781.790687594967</v>
       </c>
       <c r="G158" t="n">
-        <v>5.098499999999997</v>
+        <v>5.094499999999996</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="C159" t="n">
-        <v>5.15</v>
+        <v>5.31</v>
       </c>
       <c r="D159" t="n">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="E159" t="n">
-        <v>5.15</v>
+        <v>5.31</v>
       </c>
       <c r="F159" t="n">
-        <v>371097.2558</v>
+        <v>20000</v>
       </c>
       <c r="G159" t="n">
-        <v>5.09983333333333</v>
+        <v>5.098499999999997</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,25 +4995,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="C160" t="n">
-        <v>5.16</v>
+        <v>5.15</v>
       </c>
       <c r="D160" t="n">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="E160" t="n">
-        <v>5.16</v>
+        <v>5.15</v>
       </c>
       <c r="F160" t="n">
-        <v>511.0454</v>
+        <v>371097.2558</v>
       </c>
       <c r="G160" t="n">
-        <v>5.101499999999997</v>
+        <v>5.09983333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4554,12 +5036,15 @@
         <v>5.16</v>
       </c>
       <c r="F161" t="n">
-        <v>6709.5632</v>
+        <v>511.0454</v>
       </c>
       <c r="G161" t="n">
-        <v>5.102666666666664</v>
+        <v>5.101499999999997</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.22</v>
+        <v>5.16</v>
       </c>
       <c r="C162" t="n">
-        <v>5.22</v>
+        <v>5.16</v>
       </c>
       <c r="D162" t="n">
-        <v>5.22</v>
+        <v>5.16</v>
       </c>
       <c r="E162" t="n">
-        <v>5.22</v>
+        <v>5.16</v>
       </c>
       <c r="F162" t="n">
-        <v>3842.4154</v>
+        <v>6709.5632</v>
       </c>
       <c r="G162" t="n">
-        <v>5.105499999999997</v>
+        <v>5.102666666666664</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4597,21 +5085,24 @@
         <v>5.22</v>
       </c>
       <c r="C163" t="n">
-        <v>5.2</v>
+        <v>5.22</v>
       </c>
       <c r="D163" t="n">
         <v>5.22</v>
       </c>
       <c r="E163" t="n">
-        <v>5.2</v>
+        <v>5.22</v>
       </c>
       <c r="F163" t="n">
-        <v>34624.8581</v>
+        <v>3842.4154</v>
       </c>
       <c r="G163" t="n">
-        <v>5.108833333333331</v>
+        <v>5.105499999999997</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="C164" t="n">
-        <v>5.18</v>
+        <v>5.2</v>
       </c>
       <c r="D164" t="n">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="E164" t="n">
-        <v>5.18</v>
+        <v>5.2</v>
       </c>
       <c r="F164" t="n">
-        <v>4268.3266</v>
+        <v>34624.8581</v>
       </c>
       <c r="G164" t="n">
-        <v>5.110999999999998</v>
+        <v>5.108833333333331</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>5.18</v>
       </c>
       <c r="F165" t="n">
-        <v>20000</v>
+        <v>4268.3266</v>
       </c>
       <c r="G165" t="n">
-        <v>5.113333333333331</v>
+        <v>5.110999999999998</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="C166" t="n">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="D166" t="n">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="E166" t="n">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G166" t="n">
-        <v>5.115999999999998</v>
+        <v>5.113333333333331</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4701,21 +5201,24 @@
         <v>5.17</v>
       </c>
       <c r="C167" t="n">
-        <v>5.15</v>
+        <v>5.17</v>
       </c>
       <c r="D167" t="n">
         <v>5.17</v>
       </c>
       <c r="E167" t="n">
-        <v>5.15</v>
+        <v>5.17</v>
       </c>
       <c r="F167" t="n">
-        <v>370000.95</v>
+        <v>200</v>
       </c>
       <c r="G167" t="n">
-        <v>5.118333333333331</v>
+        <v>5.115999999999998</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.16</v>
+        <v>5.17</v>
       </c>
       <c r="C168" t="n">
         <v>5.15</v>
       </c>
       <c r="D168" t="n">
-        <v>5.16</v>
+        <v>5.17</v>
       </c>
       <c r="E168" t="n">
         <v>5.15</v>
       </c>
       <c r="F168" t="n">
-        <v>621142.2058</v>
+        <v>370000.95</v>
       </c>
       <c r="G168" t="n">
-        <v>5.120666666666664</v>
+        <v>5.118333333333331</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="C169" t="n">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="D169" t="n">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="E169" t="n">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="F169" t="n">
-        <v>42963.185</v>
+        <v>621142.2058</v>
       </c>
       <c r="G169" t="n">
-        <v>5.122166666666664</v>
+        <v>5.120666666666664</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.12</v>
+        <v>5.1</v>
       </c>
       <c r="C170" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="D170" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="E170" t="n">
-        <v>5.12</v>
+        <v>5.1</v>
       </c>
       <c r="F170" t="n">
-        <v>340000</v>
+        <v>42963.185</v>
       </c>
       <c r="G170" t="n">
-        <v>5.124499999999998</v>
+        <v>5.122166666666664</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,7 +5314,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.15</v>
+        <v>5.12</v>
       </c>
       <c r="C171" t="n">
         <v>5.15</v>
@@ -4811,15 +5323,18 @@
         <v>5.15</v>
       </c>
       <c r="E171" t="n">
-        <v>5.15</v>
+        <v>5.12</v>
       </c>
       <c r="F171" t="n">
-        <v>630517.5797999999</v>
+        <v>340000</v>
       </c>
       <c r="G171" t="n">
-        <v>5.126833333333331</v>
+        <v>5.124499999999998</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,544 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="C172" t="n">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="D172" t="n">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="E172" t="n">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="F172" t="n">
-        <v>106933.9267</v>
+        <v>630517.5797999999</v>
       </c>
       <c r="G172" t="n">
-        <v>5.128499999999998</v>
+        <v>5.126833333333331</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C173" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F173" t="n">
-        <v>126225.9312</v>
-      </c>
-      <c r="G173" t="n">
-        <v>5.129999999999998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="C174" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D174" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="E174" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F174" t="n">
-        <v>103707.8255</v>
-      </c>
-      <c r="G174" t="n">
-        <v>5.129999999999998</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C175" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D175" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E175" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F175" t="n">
-        <v>84676.46739999999</v>
-      </c>
-      <c r="G175" t="n">
-        <v>5.129166666666666</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C176" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F176" t="n">
-        <v>103707.8255</v>
-      </c>
-      <c r="G176" t="n">
-        <v>5.127333333333334</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C177" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D177" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E177" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F177" t="n">
-        <v>340000</v>
-      </c>
-      <c r="G177" t="n">
-        <v>5.125</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C178" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D178" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F178" t="n">
-        <v>20107.605</v>
-      </c>
-      <c r="G178" t="n">
-        <v>5.123</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="D179" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="F179" t="n">
-        <v>11370.2475</v>
-      </c>
-      <c r="G179" t="n">
-        <v>5.122166666666667</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D180" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E180" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F180" t="n">
-        <v>3702.4871</v>
-      </c>
-      <c r="G180" t="n">
-        <v>5.121833333333332</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D181" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F181" t="n">
-        <v>13893.6102</v>
-      </c>
-      <c r="G181" t="n">
-        <v>5.122999999999999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D182" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F182" t="n">
-        <v>147764.2268</v>
-      </c>
-      <c r="G182" t="n">
-        <v>5.122666666666665</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D183" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E183" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="F183" t="n">
-        <v>277795.493</v>
-      </c>
-      <c r="G183" t="n">
-        <v>5.124333333333331</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C184" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="D184" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E184" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="F184" t="n">
-        <v>8700000</v>
-      </c>
-      <c r="G184" t="n">
-        <v>5.126666666666665</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="D185" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E185" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="F185" t="n">
-        <v>9017132.547700001</v>
-      </c>
-      <c r="G185" t="n">
-        <v>5.127833333333332</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D186" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E186" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F186" t="n">
-        <v>17984276.855</v>
-      </c>
-      <c r="G186" t="n">
-        <v>5.129999999999999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D187" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="E187" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F187" t="n">
-        <v>26919802.1622</v>
-      </c>
-      <c r="G187" t="n">
-        <v>5.132166666666666</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="C188" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="D188" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="E188" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1390</v>
-      </c>
-      <c r="G188" t="n">
-        <v>5.134333333333332</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D189" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E189" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F189" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G189" t="n">
-        <v>5.137333333333332</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="C190" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="D190" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="E190" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F190" t="n">
-        <v>16191.645</v>
-      </c>
-      <c r="G190" t="n">
-        <v>5.141166666666666</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="C191" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="D191" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="E191" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F191" t="n">
-        <v>59447.2988</v>
-      </c>
-      <c r="G191" t="n">
-        <v>5.143333333333334</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C192" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="D192" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E192" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="F192" t="n">
-        <v>121.7727</v>
-      </c>
-      <c r="G192" t="n">
-        <v>5.145500000000001</v>
-      </c>
-      <c r="H192" t="n">
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
